--- a/register/2022.xlsx
+++ b/register/2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEDD7D9-D424-44F9-95BD-BFAC53D6B961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20869F2-E5FA-47A6-AF4A-1CA712FD1E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="-60" windowWidth="25320" windowHeight="15870" xr2:uid="{7BF7D32E-81E6-4EB9-912C-EA9A7586C1C1}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{7BF7D32E-81E6-4EB9-912C-EA9A7586C1C1}"/>
   </bookViews>
   <sheets>
     <sheet name="НМТ-213901" sheetId="1" r:id="rId1"/>
@@ -34,206 +34,107 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>Ан Н.О.</t>
   </si>
   <si>
-    <t>53104405</t>
-  </si>
-  <si>
     <t>Анисимова А.А.</t>
   </si>
   <si>
-    <t>53104404</t>
-  </si>
-  <si>
     <t>Антонов Е.В.</t>
   </si>
   <si>
-    <t>53104410</t>
-  </si>
-  <si>
     <t>Ахмадзай М.</t>
   </si>
   <si>
-    <t>53104429</t>
-  </si>
-  <si>
     <t>Берля В.Д.</t>
   </si>
   <si>
-    <t>53104422</t>
-  </si>
-  <si>
     <t>Богачев Д.А.</t>
   </si>
   <si>
-    <t>53104426</t>
-  </si>
-  <si>
     <t>Бородина Е.А.</t>
   </si>
   <si>
-    <t>53104409</t>
-  </si>
-  <si>
     <t>Бочковский Д.В.</t>
   </si>
   <si>
-    <t>53104412</t>
-  </si>
-  <si>
     <t>Булат Н.И.</t>
   </si>
   <si>
-    <t>53104433</t>
-  </si>
-  <si>
     <t>Ватутин И.Д.</t>
   </si>
   <si>
-    <t>53104424</t>
-  </si>
-  <si>
     <t>Водопьянов В.А.</t>
   </si>
   <si>
-    <t>53104417</t>
-  </si>
-  <si>
     <t>Игнатов В.А.</t>
   </si>
   <si>
-    <t>53104402</t>
-  </si>
-  <si>
     <t>Икрам Х.</t>
   </si>
   <si>
-    <t>53104430</t>
-  </si>
-  <si>
     <t>Истомин К.А.</t>
   </si>
   <si>
-    <t>53104428</t>
-  </si>
-  <si>
     <t>Ичков В.В.</t>
   </si>
   <si>
-    <t>53104435</t>
-  </si>
-  <si>
     <t>Климов О.А.</t>
   </si>
   <si>
-    <t>53104416</t>
-  </si>
-  <si>
     <t>Коротков Ю.А.</t>
   </si>
   <si>
-    <t>53104421</t>
-  </si>
-  <si>
     <t>Крашенинников Я.В.</t>
   </si>
   <si>
-    <t>53104419</t>
-  </si>
-  <si>
     <t>Кудрин В.Д.</t>
   </si>
   <si>
-    <t>53104423</t>
-  </si>
-  <si>
     <t>Куц Е.А.</t>
   </si>
   <si>
-    <t>53104418</t>
-  </si>
-  <si>
     <t>Матвеев Н.В.</t>
   </si>
   <si>
-    <t>53104434</t>
-  </si>
-  <si>
     <t>Машуков И.В.</t>
   </si>
   <si>
-    <t>53104432</t>
-  </si>
-  <si>
     <t>Михалюк С.С.</t>
   </si>
   <si>
-    <t>53104420</t>
-  </si>
-  <si>
     <t>Назаров М.Е.</t>
   </si>
   <si>
-    <t>53104431</t>
-  </si>
-  <si>
     <t>Новоселов Д.А.</t>
   </si>
   <si>
-    <t>53104413</t>
-  </si>
-  <si>
     <t>Пиров М.Х.</t>
   </si>
   <si>
-    <t>53104415</t>
-  </si>
-  <si>
     <t>Пьянова Е.А.</t>
   </si>
   <si>
-    <t>53104411</t>
-  </si>
-  <si>
     <t>Рахматиллоев Ш.Р.</t>
   </si>
   <si>
-    <t>53104403</t>
-  </si>
-  <si>
     <t>Сабурова Е.М.</t>
   </si>
   <si>
-    <t>53104425</t>
-  </si>
-  <si>
     <t>Федоровцев Д.В.</t>
   </si>
   <si>
-    <t>53104408</t>
-  </si>
-  <si>
     <t>Чулочников Е.А.</t>
   </si>
   <si>
-    <t>53104427</t>
-  </si>
-  <si>
     <t>Шумин Г.Е.</t>
   </si>
   <si>
-    <t>53104436</t>
-  </si>
-  <si>
     <t>Якимов Н.Е.</t>
   </si>
   <si>
-    <t>53104414</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -348,207 +249,105 @@
     <t>Акулова А.А.</t>
   </si>
   <si>
-    <t>53113026</t>
-  </si>
-  <si>
     <t>Акьюлова А.А.</t>
   </si>
   <si>
-    <t>53113018</t>
-  </si>
-  <si>
     <t>Беляков Н.Д.</t>
   </si>
   <si>
-    <t>53113028</t>
-  </si>
-  <si>
     <t>Бернацкая Д.В.</t>
   </si>
   <si>
-    <t>53113029</t>
-  </si>
-  <si>
     <t>Бушуев К.А.</t>
   </si>
   <si>
-    <t>53113012</t>
-  </si>
-  <si>
     <t>Григорьев И.С.</t>
   </si>
   <si>
-    <t>53113009</t>
-  </si>
-  <si>
     <t>Карпов И.С.</t>
   </si>
   <si>
-    <t>53113017</t>
-  </si>
-  <si>
     <t>Корабельников В.В.</t>
   </si>
   <si>
-    <t>53113020</t>
-  </si>
-  <si>
     <t>Кошелева Т.А.</t>
   </si>
   <si>
-    <t>53113022</t>
-  </si>
-  <si>
     <t>Латипов А.С.</t>
   </si>
   <si>
-    <t>53113010</t>
-  </si>
-  <si>
     <t>Левкин Д.В.</t>
   </si>
   <si>
-    <t>53113033</t>
-  </si>
-  <si>
     <t>Локтев К.Ю.</t>
   </si>
   <si>
-    <t>53113016</t>
-  </si>
-  <si>
     <t>Малыгин В.А.</t>
   </si>
   <si>
-    <t>53113002</t>
-  </si>
-  <si>
     <t>Малыханова А.В.</t>
   </si>
   <si>
-    <t>53113014</t>
-  </si>
-  <si>
     <t>Медведев С.Е.</t>
   </si>
   <si>
-    <t>53113030</t>
-  </si>
-  <si>
     <t>Механошин О.А.</t>
   </si>
   <si>
-    <t>53113040</t>
-  </si>
-  <si>
     <t>Моисеенко А.С.</t>
   </si>
   <si>
-    <t>53113036</t>
-  </si>
-  <si>
     <t>Навихан А.</t>
   </si>
   <si>
-    <t>53113034</t>
-  </si>
-  <si>
     <t>Павлович Е.С.</t>
   </si>
   <si>
-    <t>53113037</t>
-  </si>
-  <si>
     <t>Перун Д.О.</t>
   </si>
   <si>
-    <t>53113039</t>
-  </si>
-  <si>
     <t>Ромашко Е.В.</t>
   </si>
   <si>
-    <t>53113025</t>
-  </si>
-  <si>
     <t>Рыжков М.А.</t>
   </si>
   <si>
-    <t>53113027</t>
-  </si>
-  <si>
     <t>Сафрыгин А.А.</t>
   </si>
   <si>
-    <t>53113019</t>
-  </si>
-  <si>
     <t>Селезнева А.И.</t>
   </si>
   <si>
-    <t>53113031</t>
-  </si>
-  <si>
     <t>Сердитых Е.А.</t>
   </si>
   <si>
-    <t>53113005</t>
-  </si>
-  <si>
     <t>Стерио С.Д.</t>
   </si>
   <si>
-    <t>53113013</t>
-  </si>
-  <si>
     <t>Суриков Е.М.</t>
   </si>
   <si>
-    <t>53113006</t>
-  </si>
-  <si>
     <t>Хайдаров Х.</t>
   </si>
   <si>
-    <t>53113001</t>
-  </si>
-  <si>
     <t>Харин В.А.</t>
   </si>
   <si>
-    <t>53113024</t>
-  </si>
-  <si>
     <t>Харин М.А.</t>
   </si>
   <si>
-    <t>53113015</t>
-  </si>
-  <si>
     <t>Шарипова В.С.</t>
   </si>
   <si>
-    <t>53113038</t>
-  </si>
-  <si>
     <t>Ширинкина М.А.</t>
   </si>
   <si>
-    <t>53113008</t>
-  </si>
-  <si>
     <t>Якубенко А.А.</t>
   </si>
   <si>
-    <t>53113035</t>
-  </si>
-  <si>
     <t>Ясаков А.П.</t>
   </si>
   <si>
-    <t>53113023</t>
-  </si>
-  <si>
     <t>192.168.61.*</t>
   </si>
   <si>
@@ -649,6 +448,12 @@
   </si>
   <si>
     <t>192.168.94.*</t>
+  </si>
+  <si>
+    <t>Шербоев О.Б.</t>
+  </si>
+  <si>
+    <t>192.168.99.*</t>
   </si>
 </sst>
 </file>
@@ -732,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,6 +553,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1062,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D351E6FE-D975-4779-8137-5896D9BE1509}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,16 +887,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1098,11 +906,11 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="7">
+        <v>53104405</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1110,13 +918,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>53104404</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1124,13 +932,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>53104410</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1138,13 +946,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53104429</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1152,13 +960,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>53104422</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1166,13 +974,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>53104426</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1180,13 +988,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>53104409</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,13 +1002,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>53104412</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,13 +1016,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>53104433</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,13 +1030,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>53104424</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,13 +1044,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>53104417</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,13 +1058,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>53104402</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,13 +1072,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>53104430</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,13 +1086,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>53104428</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,13 +1100,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="7">
+        <v>53104435</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,13 +1114,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>53104416</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,13 +1128,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>53104421</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,13 +1142,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <v>53104419</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,13 +1156,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="7">
+        <v>53104423</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,13 +1170,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>53104418</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,13 +1184,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>53104434</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,13 +1198,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>53104432</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1212,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
+      </c>
+      <c r="C24" s="7">
+        <v>53104420</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1226,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="7">
+        <v>53104431</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,13 +1240,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="C26" s="7">
+        <v>53104413</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,13 +1254,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="C27" s="7">
+        <v>53104415</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1460,13 +1268,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="7">
+        <v>53104411</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,13 +1282,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="7">
+        <v>53104403</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1488,13 +1296,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="C30" s="7">
+        <v>53104425</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1502,13 +1310,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="7">
+        <v>53104408</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1516,13 +1324,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="7">
+        <v>53104427</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1530,13 +1338,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
+        <v>138</v>
+      </c>
+      <c r="C33" s="3">
+        <v>53104437</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,13 +1352,27 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="C34" s="7">
+        <v>53104436</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7">
+        <v>53104414</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1562,9 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F86CEEE-F327-4053-8D6B-973BB01C8EDF}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1579,16 +1399,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1596,13 +1416,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7">
+        <v>53113026</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1610,13 +1430,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7">
+        <v>53113018</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,13 +1444,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="7">
+        <v>53113028</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1638,13 +1458,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>73</v>
+      </c>
+      <c r="C5" s="7">
+        <v>53113029</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1652,13 +1472,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>74</v>
+      </c>
+      <c r="C6" s="7">
+        <v>53113012</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1666,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
+      </c>
+      <c r="C7" s="7">
+        <v>53113009</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1680,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>76</v>
+      </c>
+      <c r="C8" s="7">
+        <v>53113017</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1694,13 +1514,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
+      </c>
+      <c r="C9" s="7">
+        <v>53113020</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>178</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1708,13 +1528,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>120</v>
+        <v>78</v>
+      </c>
+      <c r="C10" s="7">
+        <v>53113022</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1722,13 +1542,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="C11" s="7">
+        <v>53113010</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,13 +1556,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>80</v>
+      </c>
+      <c r="C12" s="7">
+        <v>53113033</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1750,13 +1570,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>126</v>
+        <v>81</v>
+      </c>
+      <c r="C13" s="7">
+        <v>53113016</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1764,13 +1584,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="7">
+        <v>53113002</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1778,13 +1598,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="7">
+        <v>53113014</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1792,13 +1612,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>132</v>
+        <v>84</v>
+      </c>
+      <c r="C16" s="7">
+        <v>53113030</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>185</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1806,13 +1626,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
+      </c>
+      <c r="C17" s="7">
+        <v>53113040</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1820,13 +1640,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>136</v>
+        <v>86</v>
+      </c>
+      <c r="C18" s="7">
+        <v>53113036</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1834,13 +1654,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>138</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="7">
+        <v>53113034</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>188</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1848,13 +1668,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>140</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="7">
+        <v>53113037</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,13 +1682,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>142</v>
+        <v>89</v>
+      </c>
+      <c r="C21" s="7">
+        <v>53113039</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1876,13 +1696,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
+      </c>
+      <c r="C22" s="7">
+        <v>53113025</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1890,13 +1710,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="C23" s="7">
+        <v>53113027</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,13 +1724,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>148</v>
+        <v>92</v>
+      </c>
+      <c r="C24" s="7">
+        <v>53113019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1918,13 +1738,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>150</v>
+        <v>93</v>
+      </c>
+      <c r="C25" s="7">
+        <v>53113031</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1932,13 +1752,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>94</v>
+      </c>
+      <c r="C26" s="7">
+        <v>53113005</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1946,13 +1766,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>154</v>
+        <v>95</v>
+      </c>
+      <c r="C27" s="7">
+        <v>53113013</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,13 +1780,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>156</v>
+        <v>96</v>
+      </c>
+      <c r="C28" s="7">
+        <v>53113006</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1974,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>158</v>
+        <v>97</v>
+      </c>
+      <c r="C29" s="7">
+        <v>53113001</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1988,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>160</v>
+        <v>98</v>
+      </c>
+      <c r="C30" s="7">
+        <v>53113024</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>199</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2002,13 +1822,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>162</v>
+        <v>99</v>
+      </c>
+      <c r="C31" s="7">
+        <v>53113015</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2016,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>164</v>
+        <v>100</v>
+      </c>
+      <c r="C32" s="7">
+        <v>53113038</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2030,13 +1850,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>166</v>
+        <v>101</v>
+      </c>
+      <c r="C33" s="7">
+        <v>53113008</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2044,13 +1864,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>168</v>
+        <v>102</v>
+      </c>
+      <c r="C34" s="7">
+        <v>53113035</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2058,13 +1878,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>103</v>
+      </c>
+      <c r="C35" s="7">
+        <v>53113023</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>204</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/register/2022.xlsx
+++ b/register/2022.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My\Repo\nets\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20869F2-E5FA-47A6-AF4A-1CA712FD1E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" xr2:uid="{7BF7D32E-81E6-4EB9-912C-EA9A7586C1C1}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="25320" windowHeight="15210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="НМТ-213901" sheetId="1" r:id="rId1"/>
     <sheet name="НМТ-213929" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>Ан Н.О.</t>
   </si>
@@ -454,12 +453,18 @@
   </si>
   <si>
     <t>192.168.99.*</t>
+  </si>
+  <si>
+    <t>Сангинов К.А.</t>
+  </si>
+  <si>
+    <t>192.168.98.*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -869,10 +874,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D351E6FE-D975-4779-8137-5896D9BE1509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1381,10 +1388,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F86CEEE-F327-4053-8D6B-973BB01C8EDF}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1724,13 +1733,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C24" s="7">
-        <v>53113019</v>
+        <v>53113041</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1738,13 +1747,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="7">
-        <v>53113031</v>
+        <v>53113019</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="7">
-        <v>53113005</v>
+        <v>53113031</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,13 +1775,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="7">
-        <v>53113013</v>
+        <v>53113005</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1780,13 +1789,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="7">
-        <v>53113006</v>
+        <v>53113013</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7">
-        <v>53113001</v>
+        <v>53113006</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1808,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="7">
-        <v>53113024</v>
+        <v>53113001</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1822,13 +1831,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="7">
-        <v>53113015</v>
+        <v>53113024</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1836,13 +1845,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="7">
-        <v>53113038</v>
+        <v>53113015</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1850,13 +1859,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="7">
-        <v>53113008</v>
+        <v>53113038</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,13 +1873,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="7">
-        <v>53113035</v>
+        <v>53113008</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1878,12 +1887,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
+        <v>53113035</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="7">
         <v>53113023</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>137</v>
       </c>
     </row>
